--- a/SchedulingData/dynamic16/pso/scheduling1_3.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_3.xlsx
@@ -462,75 +462,75 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>83.08</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.352</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>26.7</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83.08</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>131.08</v>
+        <v>67.2</v>
       </c>
       <c r="E4" t="n">
-        <v>22.192</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
         <v>26.7</v>
@@ -538,116 +538,116 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="D6" t="n">
-        <v>37.1</v>
+        <v>108.9</v>
       </c>
       <c r="E6" t="n">
-        <v>27.48</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>45.3</v>
+        <v>128.94</v>
       </c>
       <c r="E7" t="n">
-        <v>27.16</v>
+        <v>22.416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>126.3</v>
+        <v>78.62</v>
       </c>
       <c r="E8" t="n">
-        <v>22.2</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>78.62</v>
       </c>
       <c r="D9" t="n">
-        <v>139.88</v>
+        <v>131.52</v>
       </c>
       <c r="E9" t="n">
-        <v>22.332</v>
+        <v>21.628</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>126.3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>171.4</v>
+        <v>61.9</v>
       </c>
       <c r="E10" t="n">
-        <v>18.82</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>131.08</v>
+        <v>108.9</v>
       </c>
       <c r="D11" t="n">
-        <v>171.8</v>
+        <v>206.72</v>
       </c>
       <c r="E11" t="n">
-        <v>18.76</v>
+        <v>19.668</v>
       </c>
     </row>
     <row r="12">
@@ -656,36 +656,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>83.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>90.5</v>
+        <v>130.4</v>
       </c>
       <c r="E12" t="n">
-        <v>23.78</v>
+        <v>22.26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>139.88</v>
+        <v>131.52</v>
       </c>
       <c r="D13" t="n">
-        <v>194.24</v>
+        <v>172.24</v>
       </c>
       <c r="E13" t="n">
-        <v>18.536</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="14">
@@ -694,93 +694,93 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90.5</v>
+        <v>130.4</v>
       </c>
       <c r="D14" t="n">
-        <v>164.24</v>
+        <v>195.54</v>
       </c>
       <c r="E14" t="n">
-        <v>20.996</v>
+        <v>19.356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>194.24</v>
+        <v>128.94</v>
       </c>
       <c r="D15" t="n">
-        <v>271.68</v>
+        <v>182.24</v>
       </c>
       <c r="E15" t="n">
-        <v>14.392</v>
+        <v>18.216</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>164.24</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
-        <v>222.58</v>
+        <v>119.5</v>
       </c>
       <c r="E16" t="n">
-        <v>16.292</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>172.24</v>
       </c>
       <c r="D17" t="n">
-        <v>73.59999999999999</v>
+        <v>230.94</v>
       </c>
       <c r="E17" t="n">
-        <v>25.8</v>
+        <v>14.956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>171.4</v>
+        <v>195.54</v>
       </c>
       <c r="D18" t="n">
-        <v>247.44</v>
+        <v>265.34</v>
       </c>
       <c r="E18" t="n">
-        <v>15.336</v>
+        <v>15.976</v>
       </c>
     </row>
     <row r="19">
@@ -789,36 +789,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>73.59999999999999</v>
+        <v>182.24</v>
       </c>
       <c r="D19" t="n">
-        <v>137.66</v>
+        <v>250.58</v>
       </c>
       <c r="E19" t="n">
-        <v>22.004</v>
+        <v>13.512</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>171.8</v>
+        <v>265.34</v>
       </c>
       <c r="D20" t="n">
-        <v>228.9</v>
+        <v>314.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.16</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="21">
@@ -827,98 +827,98 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>228.9</v>
+        <v>119.5</v>
       </c>
       <c r="D21" t="n">
-        <v>268.36</v>
+        <v>192.1</v>
       </c>
       <c r="E21" t="n">
-        <v>12.344</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>37.1</v>
+        <v>61.9</v>
       </c>
       <c r="D22" t="n">
-        <v>90.56</v>
+        <v>116.88</v>
       </c>
       <c r="E22" t="n">
-        <v>24.264</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>268.36</v>
+        <v>314.64</v>
       </c>
       <c r="D23" t="n">
-        <v>343.14</v>
+        <v>369.14</v>
       </c>
       <c r="E23" t="n">
-        <v>7.976</v>
+        <v>10.356</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>247.44</v>
+        <v>369.14</v>
       </c>
       <c r="D24" t="n">
-        <v>320.12</v>
+        <v>418.4</v>
       </c>
       <c r="E24" t="n">
-        <v>11.688</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>137.66</v>
+        <v>418.4</v>
       </c>
       <c r="D25" t="n">
-        <v>195.96</v>
+        <v>480.7</v>
       </c>
       <c r="E25" t="n">
-        <v>17.804</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -926,94 +926,94 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>195.96</v>
+        <v>230.94</v>
       </c>
       <c r="D26" t="n">
-        <v>275.56</v>
+        <v>305.64</v>
       </c>
       <c r="E26" t="n">
-        <v>13.424</v>
+        <v>10.576</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>343.14</v>
+        <v>206.72</v>
       </c>
       <c r="D27" t="n">
-        <v>391.64</v>
+        <v>251.92</v>
       </c>
       <c r="E27" t="n">
-        <v>4.256</v>
+        <v>16.288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>90.56</v>
+        <v>480.7</v>
       </c>
       <c r="D28" t="n">
-        <v>157.02</v>
+        <v>536.9</v>
       </c>
       <c r="E28" t="n">
-        <v>19.728</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>275.56</v>
+        <v>536.9</v>
       </c>
       <c r="D29" t="n">
-        <v>340.56</v>
+        <v>606.96</v>
       </c>
       <c r="E29" t="n">
-        <v>9.044</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>157.02</v>
+        <v>192.1</v>
       </c>
       <c r="D30" t="n">
-        <v>240.34</v>
+        <v>232.7</v>
       </c>
       <c r="E30" t="n">
-        <v>15.516</v>
+        <v>17.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,89 +1021,89 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>340.56</v>
+        <v>251.92</v>
       </c>
       <c r="D31" t="n">
-        <v>412.42</v>
+        <v>338.58</v>
       </c>
       <c r="E31" t="n">
-        <v>4.988</v>
+        <v>12.232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>222.58</v>
+        <v>232.7</v>
       </c>
       <c r="D32" t="n">
-        <v>288.34</v>
+        <v>269.02</v>
       </c>
       <c r="E32" t="n">
-        <v>12.316</v>
+        <v>14.748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>240.34</v>
+        <v>338.58</v>
       </c>
       <c r="D33" t="n">
-        <v>288.32</v>
+        <v>400.58</v>
       </c>
       <c r="E33" t="n">
-        <v>12.348</v>
+        <v>8.632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>288.34</v>
+        <v>400.58</v>
       </c>
       <c r="D34" t="n">
-        <v>346.76</v>
+        <v>490.28</v>
       </c>
       <c r="E34" t="n">
-        <v>8.103999999999999</v>
+        <v>4.252</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>346.76</v>
+        <v>116.88</v>
       </c>
       <c r="D35" t="n">
-        <v>386.16</v>
+        <v>183.34</v>
       </c>
       <c r="E35" t="n">
-        <v>4.804</v>
+        <v>16.596</v>
       </c>
     </row>
     <row r="36">
@@ -1112,36 +1112,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>412.42</v>
+        <v>250.58</v>
       </c>
       <c r="D36" t="n">
-        <v>468.94</v>
+        <v>302.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.956</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>468.94</v>
+        <v>269.02</v>
       </c>
       <c r="D37" t="n">
-        <v>548.9299999999999</v>
+        <v>322.32</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>10.548</v>
       </c>
     </row>
     <row r="38">
@@ -1150,136 +1150,136 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>548.9299999999999</v>
+        <v>302.3</v>
       </c>
       <c r="D38" t="n">
-        <v>617.79</v>
+        <v>341.78</v>
       </c>
       <c r="E38" t="n">
-        <v>26.784</v>
+        <v>8.151999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>617.79</v>
+        <v>490.28</v>
       </c>
       <c r="D39" t="n">
-        <v>659.89</v>
+        <v>547.6799999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>23.704</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>271.68</v>
+        <v>547.6799999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>343.38</v>
+        <v>612.42</v>
       </c>
       <c r="E40" t="n">
-        <v>11.352</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>343.38</v>
+        <v>341.78</v>
       </c>
       <c r="D41" t="n">
-        <v>409.56</v>
+        <v>389.76</v>
       </c>
       <c r="E41" t="n">
-        <v>7.824</v>
+        <v>4.984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>386.16</v>
+        <v>183.34</v>
       </c>
       <c r="D42" t="n">
-        <v>461.78</v>
+        <v>236.12</v>
       </c>
       <c r="E42" t="n">
-        <v>1.812</v>
+        <v>12.948</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>461.78</v>
+        <v>612.42</v>
       </c>
       <c r="D43" t="n">
-        <v>559.46</v>
+        <v>673.46</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>27.536</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>391.64</v>
+        <v>389.76</v>
       </c>
       <c r="D44" t="n">
-        <v>457.56</v>
+        <v>472.2</v>
       </c>
       <c r="E44" t="n">
-        <v>1.264</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>457.56</v>
+        <v>472.2</v>
       </c>
       <c r="D45" t="n">
-        <v>532.03</v>
+        <v>576.92</v>
       </c>
       <c r="E45" t="n">
         <v>30</v>
@@ -1298,21 +1298,21 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>532.03</v>
+        <v>236.12</v>
       </c>
       <c r="D46" t="n">
-        <v>596.99</v>
+        <v>278.32</v>
       </c>
       <c r="E46" t="n">
-        <v>27.144</v>
+        <v>9.868</v>
       </c>
     </row>
     <row r="47">
@@ -1321,397 +1321,397 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>659.89</v>
+        <v>576.92</v>
       </c>
       <c r="D47" t="n">
-        <v>727.39</v>
+        <v>644.14</v>
       </c>
       <c r="E47" t="n">
-        <v>20.584</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>320.12</v>
+        <v>305.64</v>
       </c>
       <c r="D48" t="n">
-        <v>363.82</v>
+        <v>375</v>
       </c>
       <c r="E48" t="n">
-        <v>8.448</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>363.82</v>
+        <v>606.96</v>
       </c>
       <c r="D49" t="n">
-        <v>405.54</v>
+        <v>675.8200000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>5.896</v>
+        <v>26.784</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559.46</v>
+        <v>375</v>
       </c>
       <c r="D50" t="n">
-        <v>643.08</v>
+        <v>428.4</v>
       </c>
       <c r="E50" t="n">
-        <v>25.788</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>409.56</v>
+        <v>644.14</v>
       </c>
       <c r="D51" t="n">
-        <v>456.96</v>
+        <v>697.74</v>
       </c>
       <c r="E51" t="n">
-        <v>4.704</v>
+        <v>22.728</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>288.32</v>
+        <v>322.32</v>
       </c>
       <c r="D52" t="n">
-        <v>362.82</v>
+        <v>375</v>
       </c>
       <c r="E52" t="n">
-        <v>8.988</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>405.54</v>
+        <v>375</v>
       </c>
       <c r="D53" t="n">
-        <v>458.14</v>
+        <v>450.86</v>
       </c>
       <c r="E53" t="n">
-        <v>2.256</v>
+        <v>2.924</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>596.99</v>
+        <v>697.74</v>
       </c>
       <c r="D54" t="n">
-        <v>654.1900000000001</v>
+        <v>772.34</v>
       </c>
       <c r="E54" t="n">
-        <v>24.064</v>
+        <v>19.368</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>456.96</v>
+        <v>428.4</v>
       </c>
       <c r="D55" t="n">
-        <v>501.46</v>
+        <v>494.44</v>
       </c>
       <c r="E55" t="n">
-        <v>2.384</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>643.08</v>
+        <v>494.44</v>
       </c>
       <c r="D56" t="n">
-        <v>691.96</v>
+        <v>580.21</v>
       </c>
       <c r="E56" t="n">
-        <v>23.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>501.46</v>
+        <v>675.8200000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>568.59</v>
+        <v>713.42</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>568.59</v>
+        <v>450.86</v>
       </c>
       <c r="D58" t="n">
-        <v>629.63</v>
+        <v>490.66</v>
       </c>
       <c r="E58" t="n">
-        <v>27.536</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>362.82</v>
+        <v>490.66</v>
       </c>
       <c r="D59" t="n">
-        <v>416.9</v>
+        <v>562.39</v>
       </c>
       <c r="E59" t="n">
-        <v>6.18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>629.63</v>
+        <v>673.46</v>
       </c>
       <c r="D60" t="n">
-        <v>679.73</v>
+        <v>749.1799999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>24.656</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>416.9</v>
+        <v>278.32</v>
       </c>
       <c r="D61" t="n">
-        <v>475.04</v>
+        <v>342.38</v>
       </c>
       <c r="E61" t="n">
-        <v>3.476</v>
+        <v>6.072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>458.14</v>
+        <v>342.38</v>
       </c>
       <c r="D62" t="n">
-        <v>545.13</v>
+        <v>431.08</v>
       </c>
       <c r="E62" t="n">
-        <v>30</v>
+        <v>2.772</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>545.13</v>
+        <v>431.08</v>
       </c>
       <c r="D63" t="n">
-        <v>610.67</v>
+        <v>502.54</v>
       </c>
       <c r="E63" t="n">
-        <v>27.096</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>475.04</v>
+        <v>502.54</v>
       </c>
       <c r="D64" t="n">
-        <v>510.74</v>
+        <v>577.1</v>
       </c>
       <c r="E64" t="n">
-        <v>1.036</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>510.74</v>
+        <v>577.1</v>
       </c>
       <c r="D65" t="n">
-        <v>609.97</v>
+        <v>630.88</v>
       </c>
       <c r="E65" t="n">
-        <v>30</v>
+        <v>24.896</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>610.67</v>
+        <v>713.42</v>
       </c>
       <c r="D66" t="n">
-        <v>658.0700000000001</v>
+        <v>762.36</v>
       </c>
       <c r="E66" t="n">
-        <v>23.976</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>654.1900000000001</v>
+        <v>580.21</v>
       </c>
       <c r="D67" t="n">
-        <v>712.6900000000001</v>
+        <v>643.65</v>
       </c>
       <c r="E67" t="n">
-        <v>20.824</v>
+        <v>27.296</v>
       </c>
     </row>
   </sheetData>
